--- a/data/new_golestan_courses_4012.xlsx
+++ b/data/new_golestan_courses_4012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamyar\Dropbox\PC\Documents\Uni\Sem6\Analysis and Designing System\Katyusha\Back-End\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD588319-E4B5-4C73-9578-C27E6B89C7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4698FA-BBC3-42C4-B800-22ADC1E3EE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23183" uniqueCount="3990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23178" uniqueCount="3990">
   <si>
     <t>ترم ارائه درس</t>
   </si>
@@ -12354,8 +12354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A480" sqref="A480"/>
+    <sheetView tabSelected="1" topLeftCell="A847" workbookViewId="0">
+      <selection activeCell="N870" sqref="N870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -72842,11 +72842,11 @@
       <c r="J855" t="s">
         <v>271</v>
       </c>
-      <c r="K855" t="s">
-        <v>246</v>
-      </c>
-      <c r="L855" t="s">
-        <v>30</v>
+      <c r="K855">
+        <v>54</v>
+      </c>
+      <c r="L855">
+        <v>3</v>
       </c>
       <c r="M855" t="s">
         <v>32</v>
@@ -73345,8 +73345,8 @@
       <c r="J862" t="s">
         <v>53</v>
       </c>
-      <c r="K862" t="s">
-        <v>189</v>
+      <c r="K862">
+        <v>11</v>
       </c>
       <c r="L862" t="s">
         <v>30</v>
@@ -73996,8 +73996,8 @@
       <c r="K871" t="s">
         <v>1002</v>
       </c>
-      <c r="L871" t="s">
-        <v>30</v>
+      <c r="L871">
+        <v>2</v>
       </c>
       <c r="M871" t="s">
         <v>32</v>
@@ -74064,8 +74064,8 @@
       <c r="J872" t="s">
         <v>250</v>
       </c>
-      <c r="K872" t="s">
-        <v>250</v>
+      <c r="K872">
+        <v>39</v>
       </c>
       <c r="L872" t="s">
         <v>30</v>
